--- a/Document/CharacterAppearanceTable.xlsx
+++ b/Document/CharacterAppearanceTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22532427-DA3C-4C50-ADE2-A306BA94D584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF4159-A6D0-47AC-B3B6-4106DEEE9084}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,7 @@
     <t>SkeletalMesh'/Game/AnimStarterPack/UE4_Mannequin/Mesh/SK_Mannequin.SK_Mannequin'</t>
   </si>
   <si>
-    <t>AnimBlueprint'/Game/ThirdPersonBP/Blueprints/Characters/ABP_Mannequin.ABP_Mannequin_C'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AnimBlueprint'/Game/Characters/ABP_Mannequin.ABP_Mannequin_C'</t>
   </si>
 </sst>
 </file>
@@ -506,20 +505,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,7 +527,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -563,16 +562,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -858,23 +857,23 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="55" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.75" style="3" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="7" customWidth="1"/>
-    <col min="7" max="9" width="8.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="7" customWidth="1"/>
+    <col min="7" max="9" width="8.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="9" style="5"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -910,7 +909,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -945,7 +944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -980,7 +979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -3955,7 +3954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11">
       <c r="A91" s="3" t="s">
         <v>94</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="3" t="s">
         <v>100</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" s="3" t="s">
         <v>102</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11">
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11">
       <c r="A108" s="3" t="s">
         <v>111</v>
       </c>

--- a/Document/CharacterAppearanceTable.xlsx
+++ b/Document/CharacterAppearanceTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF4159-A6D0-47AC-B3B6-4106DEEE9084}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FCEEA-B80D-46E6-B05E-1AEE8035FF49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -857,14 +857,13 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C108"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="55" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="54.7109375" style="3" customWidth="1"/>
     <col min="4" max="5" width="8.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="7" customWidth="1"/>
     <col min="7" max="9" width="8.5703125" style="5" customWidth="1"/>

--- a/Document/CharacterAppearanceTable.xlsx
+++ b/Document/CharacterAppearanceTable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FCEEA-B80D-46E6-B05E-1AEE8035FF49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02019CEF-D53E-401B-98B6-757FF5A18CA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="121">
   <si>
     <t>Mesh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +494,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkeletalMesh'/Game/AnimStarterPack/UE4_Mannequin/Mesh/SK_Mannequin.SK_Mannequin'</t>
-  </si>
-  <si>
-    <t>AnimBlueprint'/Game/Characters/ABP_Mannequin.ABP_Mannequin_C'</t>
+    <t>ABP_Corpus</t>
+  </si>
+  <si>
+    <t>ABP_Warframe</t>
+  </si>
+  <si>
+    <t>SKM_Mannequin</t>
   </si>
 </sst>
 </file>
@@ -857,13 +860,13 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="54.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="32.7109375" style="3" customWidth="1"/>
     <col min="4" max="5" width="8.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="7" customWidth="1"/>
     <col min="7" max="9" width="8.5703125" style="5" customWidth="1"/>
@@ -913,10 +916,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -948,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -983,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -1018,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1053,10 +1056,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -1088,10 +1091,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -1123,10 +1126,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1158,10 +1161,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1193,10 +1196,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -1228,10 +1231,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -1263,10 +1266,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -1298,10 +1301,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -1333,10 +1336,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -1368,10 +1371,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -1403,10 +1406,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -1438,10 +1441,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -1473,10 +1476,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
@@ -1508,10 +1511,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -1543,10 +1546,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -1578,10 +1581,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -1613,10 +1616,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
@@ -1648,10 +1651,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
@@ -1683,10 +1686,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
@@ -1718,10 +1721,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
@@ -1753,10 +1756,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -1788,10 +1791,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="5">
         <v>0</v>
@@ -1823,10 +1826,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
@@ -1858,10 +1861,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
@@ -1893,10 +1896,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
@@ -1928,10 +1931,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
@@ -1963,10 +1966,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D32" s="5">
         <v>0</v>
@@ -1998,10 +2001,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
@@ -2033,10 +2036,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -2068,10 +2071,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
@@ -2103,10 +2106,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
@@ -2138,10 +2141,10 @@
         <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
@@ -2173,10 +2176,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
@@ -2208,10 +2211,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
@@ -2243,10 +2246,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
@@ -2278,10 +2281,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
@@ -2313,10 +2316,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D42" s="5">
         <v>0</v>
@@ -2348,10 +2351,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -2383,10 +2386,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D44" s="5">
         <v>0</v>
@@ -2418,10 +2421,10 @@
         <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
@@ -2453,10 +2456,10 @@
         <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D46" s="5">
         <v>0</v>
@@ -2488,7 +2491,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>119</v>
@@ -2523,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>119</v>
@@ -2558,7 +2561,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>119</v>
@@ -2593,7 +2596,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>119</v>
@@ -2628,7 +2631,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>119</v>
@@ -2663,7 +2666,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>119</v>
@@ -2698,7 +2701,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>119</v>
@@ -2733,7 +2736,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>119</v>
@@ -2768,7 +2771,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>119</v>
@@ -2803,7 +2806,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>119</v>
@@ -2838,7 +2841,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>119</v>
@@ -2873,7 +2876,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>119</v>
@@ -2908,7 +2911,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>119</v>
@@ -2943,7 +2946,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>119</v>
@@ -2978,7 +2981,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>119</v>
@@ -3013,7 +3016,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>119</v>
@@ -3048,7 +3051,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>119</v>
@@ -3083,7 +3086,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>119</v>
@@ -3118,7 +3121,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>119</v>
@@ -3153,7 +3156,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>119</v>
@@ -3188,7 +3191,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>119</v>
@@ -3223,7 +3226,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>119</v>
@@ -3258,7 +3261,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>119</v>
@@ -3293,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>119</v>
@@ -3328,7 +3331,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>119</v>
@@ -3363,7 +3366,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>119</v>
@@ -3398,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>119</v>
@@ -3433,7 +3436,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>119</v>
@@ -3468,7 +3471,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>119</v>
@@ -3503,7 +3506,7 @@
         <v>79</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>119</v>
@@ -3538,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>119</v>
@@ -3573,7 +3576,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>119</v>
@@ -3608,7 +3611,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>119</v>
@@ -3643,7 +3646,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>119</v>
@@ -3678,7 +3681,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>119</v>
@@ -3713,7 +3716,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>119</v>
@@ -3748,7 +3751,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>119</v>
@@ -3783,7 +3786,7 @@
         <v>87</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>119</v>
@@ -3818,7 +3821,7 @@
         <v>88</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>119</v>
@@ -3853,7 +3856,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>119</v>
@@ -3888,7 +3891,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>119</v>
@@ -3923,7 +3926,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>119</v>
@@ -3958,7 +3961,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>119</v>
@@ -3993,7 +3996,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>119</v>
@@ -4028,7 +4031,7 @@
         <v>94</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>119</v>
@@ -4063,7 +4066,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>119</v>
@@ -4098,7 +4101,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>119</v>
@@ -4133,7 +4136,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>119</v>
@@ -4168,7 +4171,7 @@
         <v>98</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>119</v>
@@ -4203,7 +4206,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>119</v>
@@ -4238,7 +4241,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>119</v>
@@ -4273,7 +4276,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>119</v>
@@ -4308,7 +4311,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>119</v>
@@ -4343,7 +4346,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>119</v>
@@ -4378,7 +4381,7 @@
         <v>104</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>119</v>
@@ -4413,7 +4416,7 @@
         <v>105</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>119</v>
@@ -4448,7 +4451,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>119</v>
@@ -4483,7 +4486,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>119</v>
@@ -4518,7 +4521,7 @@
         <v>108</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>119</v>
@@ -4553,7 +4556,7 @@
         <v>109</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>119</v>
@@ -4588,7 +4591,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>119</v>
@@ -4623,7 +4626,7 @@
         <v>111</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>119</v>
